--- a/docs/planning/하루하루_WBS.xlsx
+++ b/docs/planning/하루하루_WBS.xlsx
@@ -1605,6 +1605,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,9 +1688,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1973,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1988,119 +1988,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="74" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="81" t="s">
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="82" t="s">
+      <c r="S3" s="80"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="59" t="s">
+      <c r="W3" s="60" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="78"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2119,9 +2119,9 @@
       <c r="T4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="60"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="61"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -2314,7 +2314,9 @@
       <c r="P9" s="12">
         <v>2</v>
       </c>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="13">
+        <v>1</v>
+      </c>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="13"/>
@@ -2778,7 +2780,9 @@
       <c r="P21" s="12">
         <v>1</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="13">
+        <v>1</v>
+      </c>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="13"/>
@@ -4241,10 +4245,10 @@
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="57">
         <v>45792</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="57">
         <v>45794</v>
       </c>
       <c r="E2" t="s">
@@ -4261,10 +4265,10 @@
       <c r="B3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="57">
         <v>45792</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="57">
         <v>45795</v>
       </c>
       <c r="E3" t="s">
@@ -4281,10 +4285,10 @@
       <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="57">
         <v>45795</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="57">
         <v>45797</v>
       </c>
       <c r="E4" t="s">
@@ -4301,10 +4305,10 @@
       <c r="B5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="57">
         <v>45796</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="57">
         <v>45798</v>
       </c>
       <c r="E5" t="s">
@@ -4321,10 +4325,10 @@
       <c r="B6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="57">
         <v>45798</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="57">
         <v>45800</v>
       </c>
       <c r="E6" t="s">
@@ -4341,10 +4345,10 @@
       <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="57">
         <v>45801</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="57">
         <v>45803</v>
       </c>
       <c r="E7" t="s">
@@ -4361,10 +4365,10 @@
       <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="57">
         <v>45804</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="57">
         <v>45807</v>
       </c>
       <c r="E8" t="s">
@@ -4381,10 +4385,10 @@
       <c r="B9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="57">
         <v>45792</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="57">
         <v>45793</v>
       </c>
       <c r="E9" t="s">
@@ -4401,10 +4405,10 @@
       <c r="B10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="57">
         <v>45794</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="57">
         <v>45795</v>
       </c>
       <c r="E10" t="s">
@@ -4421,10 +4425,10 @@
       <c r="B11" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="57">
         <v>45796</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="57">
         <v>45797</v>
       </c>
       <c r="E11" t="s">
@@ -4441,10 +4445,10 @@
       <c r="B12" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="57">
         <v>45804</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="57">
         <v>45807</v>
       </c>
       <c r="E12" t="s">
@@ -4593,9 +4597,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="84">
+      <c r="A31" s="57">
         <f ca="1">TODAY()</f>
-        <v>45791</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4606,5 +4610,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>